--- a/src/main/resources/ExportTemplate/PhieuDeNghiThanhToanTemplate.xlsx
+++ b/src/main/resources/ExportTemplate/PhieuDeNghiThanhToanTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\workspace\ael\src\main\resources\ExportTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Working\Projects\GitHub\ael\src\main\resources\ExportTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <r>
       <t>CÔNG TY TNHH THƯƠNG MẠI – DỊCH VỤ</t>
@@ -197,11 +197,17 @@
   <si>
     <t>LCL / 20’cont / 40’cont</t>
   </si>
+  <si>
+    <t xml:space="preserve">${employee.address.address} </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00;[Red]#,##0.00"/>
+  </numFmts>
   <fonts count="14">
     <font>
       <sz val="11"/>
@@ -378,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -405,6 +411,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -761,7 +770,7 @@
   <dimension ref="A2:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -826,6 +835,9 @@
       <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
@@ -863,10 +875,10 @@
       <c r="D14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -877,10 +889,10 @@
       <c r="D15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="16" t="s">
         <v>27</v>
       </c>
     </row>
@@ -888,7 +900,7 @@
       <c r="C16" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="15" t="s">
         <v>28</v>
       </c>
     </row>

--- a/src/main/resources/ExportTemplate/PhieuDeNghiThanhToanTemplate.xlsx
+++ b/src/main/resources/ExportTemplate/PhieuDeNghiThanhToanTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Working\Projects\GitHub\ael\src\main\resources\ExportTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\workspace\ael\src\main\resources\ExportTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <r>
       <t>CÔNG TY TNHH THƯƠNG MẠI – DỊCH VỤ</t>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t xml:space="preserve">${employee.address.address} </t>
+  </si>
+  <si>
+    <t>${refundDetails.cont}</t>
   </si>
 </sst>
 </file>
@@ -770,7 +773,7 @@
   <dimension ref="A2:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -871,7 +874,9 @@
       <c r="B14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="D14" s="10" t="s">
         <v>24</v>
       </c>

--- a/src/main/resources/ExportTemplate/PhieuDeNghiThanhToanTemplate.xlsx
+++ b/src/main/resources/ExportTemplate/PhieuDeNghiThanhToanTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\workspace\ael\src\main\resources\ExportTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Working\Projects\GitHub\ael\src\main\resources\ExportTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -50,9 +50,6 @@
     <t xml:space="preserve">Mã số </t>
   </si>
   <si>
-    <t>PHIẾU ĐỀ NGHỊ TẠM ỨNG</t>
-  </si>
-  <si>
     <r>
       <t>Kính g</t>
     </r>
@@ -202,6 +199,9 @@
   </si>
   <si>
     <t>${refundDetails.cont}</t>
+  </si>
+  <si>
+    <t>PHIẾU ĐỀ NGHỊ THANH TOÁN</t>
   </si>
 </sst>
 </file>
@@ -773,7 +773,7 @@
   <dimension ref="A2:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -809,82 +809,82 @@
         <v>3</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="18">
       <c r="C7" s="6" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75">
       <c r="A8" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75">
       <c r="A9" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75">
       <c r="A10" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="12" t="s">
+      <c r="E13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="F13" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="F14" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -892,37 +892,37 @@
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75">
       <c r="C16" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15.75">
       <c r="B17" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15.75">
       <c r="B18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="D18" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/ExportTemplate/PhieuDeNghiThanhToanTemplate.xlsx
+++ b/src/main/resources/ExportTemplate/PhieuDeNghiThanhToanTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Working\Projects\GitHub\ael\src\main\resources\ExportTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Java\ael\src\main\resources\ExportTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -208,9 +208,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00;[Red]#,##0.00"/>
-  </numFmts>
   <fonts count="14">
     <font>
       <sz val="11"/>
@@ -387,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -414,9 +411,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -773,15 +769,15 @@
   <dimension ref="A2:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.453125" customWidth="1"/>
+    <col min="5" max="5" width="26.453125" customWidth="1"/>
     <col min="6" max="6" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -800,8 +796,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1">
+    <row r="5" spans="1:10" ht="15" thickBot="1"/>
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -821,12 +817,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75">
+    <row r="8" spans="1:10" ht="15.5">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75">
+    <row r="9" spans="1:10" ht="15.5">
       <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
@@ -834,7 +830,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75">
+    <row r="10" spans="1:10" ht="15.5">
       <c r="A10" s="8" t="s">
         <v>6</v>
       </c>
@@ -883,7 +879,7 @@
       <c r="E14" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="14" t="s">
         <v>24</v>
       </c>
     </row>
@@ -897,11 +893,11 @@
       <c r="E15" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75">
+    <row r="16" spans="1:10" ht="15.5">
       <c r="C16" s="13" t="s">
         <v>29</v>
       </c>
@@ -909,12 +905,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="15.75">
+    <row r="17" spans="2:4" ht="15.5">
       <c r="B17" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="15.75">
+    <row r="18" spans="2:4" ht="15.5">
       <c r="B18" s="9" t="s">
         <v>10</v>
       </c>

--- a/src/main/resources/ExportTemplate/PhieuDeNghiThanhToanTemplate.xlsx
+++ b/src/main/resources/ExportTemplate/PhieuDeNghiThanhToanTemplate.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Java\ael\src\main\resources\ExportTemplate\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14640" windowHeight="4230"/>
   </bookViews>
@@ -26,21 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
-    <r>
-      <t>CÔNG TY TNHH THƯƠNG MẠI – DỊCH VỤ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> AEL.</t>
-    </r>
-  </si>
-  <si>
     <t>Ad: 308/18 Bình Lợi – Ph.13 – Q.Bình Thạnh – Tp.HCM</t>
   </si>
   <si>
@@ -48,6 +28,93 @@
   </si>
   <si>
     <t xml:space="preserve">Mã số </t>
+  </si>
+  <si>
+    <t>Tôi tên     :</t>
+  </si>
+  <si>
+    <t>Bộ phận   :</t>
+  </si>
+  <si>
+    <t>Kính đề nghị Ban Giám Đốc Công ty AEL xem xét cho tôi  được tạm ứng để thực hiện công việc của công ty , cụ thể như sau:</t>
+  </si>
+  <si>
+    <t>Tổng cộng</t>
+  </si>
+  <si>
+    <t>Ban Giám Đốc</t>
+  </si>
+  <si>
+    <t>Phê duyệt</t>
+  </si>
+  <si>
+    <t>Trưởng Bộ phận</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>${refundDate}</t>
+  </si>
+  <si>
+    <t>${employee.firstName} ${employee.lastName}</t>
+  </si>
+  <si>
+    <t>${refundDetails.index}</t>
+  </si>
+  <si>
+    <t>Job - Tên khách hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Lý do thanh toán</t>
+  </si>
+  <si>
+    <t>Chi phí có hóa đơn</t>
+  </si>
+  <si>
+    <t>Chi phí khoán</t>
+  </si>
+  <si>
+    <t>${refundDetails.fileCus}</t>
+  </si>
+  <si>
+    <t>${refundDetails.amount}</t>
+  </si>
+  <si>
+    <t>${refundDetails.description}</t>
+  </si>
+  <si>
+    <t>${refundDetails.oAmount}</t>
+  </si>
+  <si>
+    <t>${totalAmount}</t>
+  </si>
+  <si>
+    <t>${totalOAmount}</t>
+  </si>
+  <si>
+    <t>${grandTotal}</t>
+  </si>
+  <si>
+    <t>${refNo}</t>
+  </si>
+  <si>
+    <t>LCL / 20’cont / 40’cont</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${employee.address.address} </t>
+  </si>
+  <si>
+    <t>${refundDetails.cont}</t>
+  </si>
+  <si>
+    <t>PHIẾU ĐỀ NGHỊ THANH TOÁN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tổng số tiền đề nghị chi: </t>
+  </si>
+  <si>
+    <t>Người Đề nghị</t>
   </si>
   <si>
     <r>
@@ -57,158 +124,35 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>ửi: BAN GIÁM ĐỐC CÔNG TY AEL</t>
     </r>
   </si>
   <si>
-    <t>Tôi tên     :</t>
-  </si>
-  <si>
-    <t>Bộ phận   :</t>
-  </si>
-  <si>
-    <t>Kính đề nghị Ban Giám Đốc Công ty AEL xem xét cho tôi  được tạm ứng để thực hiện công việc của công ty , cụ thể như sau:</t>
-  </si>
-  <si>
-    <t>Tổng cộng</t>
-  </si>
-  <si>
-    <t>Ban Giám Đốc</t>
-  </si>
-  <si>
-    <t>Phê duyệt</t>
-  </si>
-  <si>
-    <t>Trưởng Bộ phận</t>
-  </si>
-  <si>
     <r>
-      <t>Người Đ</t>
+      <t>CÔNG TY TNHH THƯƠNG MẠI – DỊCH VỤ</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>ề</t>
+      <t xml:space="preserve"> AEL.</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> nghị</t>
-    </r>
-  </si>
-  <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>${refundDate}</t>
-  </si>
-  <si>
-    <t>${employee.firstName} ${employee.lastName}</t>
-  </si>
-  <si>
-    <t>${refundDetails.index}</t>
-  </si>
-  <si>
-    <t>Job - Tên khách hàng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Lý do thanh toán</t>
-  </si>
-  <si>
-    <t>Chi phí có hóa đơn</t>
-  </si>
-  <si>
-    <t>Chi phí khoán</t>
-  </si>
-  <si>
-    <t>${refundDetails.fileCus}</t>
-  </si>
-  <si>
-    <t>${refundDetails.amount}</t>
-  </si>
-  <si>
-    <t>${refundDetails.description}</t>
-  </si>
-  <si>
-    <t>${refundDetails.oAmount}</t>
-  </si>
-  <si>
-    <t>${totalAmount}</t>
-  </si>
-  <si>
-    <t>${totalOAmount}</t>
-  </si>
-  <si>
-    <t>${grandTotal}</t>
-  </si>
-  <si>
-    <t>${refNo}</t>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ổ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="VNI-Times"/>
-      </rPr>
-      <t>ng</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> số tiền đề nghị chi: </t>
-    </r>
-  </si>
-  <si>
-    <t>LCL / 20’cont / 40’cont</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${employee.address.address} </t>
-  </si>
-  <si>
-    <t>${refundDetails.cont}</t>
-  </si>
-  <si>
-    <t>PHIẾU ĐỀ NGHỊ THANH TOÁN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,92 +162,42 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="VNI-Times"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -386,10 +280,16 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -399,20 +299,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,7 +440,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -581,7 +475,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -758,7 +652,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -769,156 +663,158 @@
   <dimension ref="A2:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="25.453125" customWidth="1"/>
-    <col min="5" max="5" width="26.453125" customWidth="1"/>
-    <col min="6" max="6" width="32" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="32" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
-      <c r="E2" s="1" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E2" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E3" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="E3" s="1" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E4" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="E4" s="1" t="s">
+    <row r="5" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1"/>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" ht="18">
-      <c r="C7" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.5">
-      <c r="A8" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.5">
-      <c r="A9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.5">
-      <c r="A10" s="8" t="s">
+      <c r="D14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E15" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.5">
-      <c r="C16" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="15.5">
-      <c r="B17" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="15.5">
-      <c r="B18" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/ExportTemplate/PhieuDeNghiThanhToanTemplate.xlsx
+++ b/src/main/resources/ExportTemplate/PhieuDeNghiThanhToanTemplate.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Working\Projects\GitHub\ael\src\main\resources\ExportTemplate\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14640" windowHeight="4230"/>
   </bookViews>
@@ -36,9 +41,6 @@
     <t>Bộ phận   :</t>
   </si>
   <si>
-    <t>Kính đề nghị Ban Giám Đốc Công ty AEL xem xét cho tôi  được tạm ứng để thực hiện công việc của công ty , cụ thể như sau:</t>
-  </si>
-  <si>
     <t>Tổng cộng</t>
   </si>
   <si>
@@ -146,6 +148,9 @@
       </rPr>
       <t xml:space="preserve"> AEL.</t>
     </r>
+  </si>
+  <si>
+    <t>Kính đề nghị Ban Giám Đốc Công ty AEL xem xét cho tôi  được thanh toán để thực hiện công việc của công ty , cụ thể như sau:</t>
   </si>
 </sst>
 </file>
@@ -652,7 +657,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -663,7 +668,7 @@
   <dimension ref="A2:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -679,7 +684,7 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -701,21 +706,21 @@
         <v>2</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -723,7 +728,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -731,52 +736,52 @@
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="12" t="s">
+      <c r="E13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="F13" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="13" t="s">
+      <c r="F14" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -784,37 +789,37 @@
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="14" t="s">
         <v>22</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/ExportTemplate/PhieuDeNghiThanhToanTemplate.xlsx
+++ b/src/main/resources/ExportTemplate/PhieuDeNghiThanhToanTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Working\Projects\GitHub\ael\src\main\resources\ExportTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_projects\kepler_workspace\ael\src\main\resources\ExportTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Ad: 308/18 Bình Lợi – Ph.13 – Q.Bình Thạnh – Tp.HCM</t>
   </si>
@@ -151,6 +151,15 @@
   </si>
   <si>
     <t>Kính đề nghị Ban Giám Đốc Công ty AEL xem xét cho tôi  được thanh toán để thực hiện công việc của công ty , cụ thể như sau:</t>
+  </si>
+  <si>
+    <t>Số tiền bằng chữ:</t>
+  </si>
+  <si>
+    <t>${amountVND}</t>
+  </si>
+  <si>
+    <t>Kế Toán</t>
   </si>
 </sst>
 </file>
@@ -665,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J18"/>
+  <dimension ref="A2:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -806,19 +815,30 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>30</v>
       </c>
     </row>

--- a/src/main/resources/ExportTemplate/PhieuDeNghiThanhToanTemplate.xlsx
+++ b/src/main/resources/ExportTemplate/PhieuDeNghiThanhToanTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="7980"/>
+    <workbookView windowWidth="20370" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -176,12 +176,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -228,11 +228,6 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -313,19 +308,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -352,12 +347,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,11 +670,11 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -705,18 +700,18 @@
   <sheetPr/>
   <dimension ref="A2:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" style="1"/>
-    <col min="2" max="2" width="23.4285714285714" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.4285714285714" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.4285714285714" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.11428571428571" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6380952380952" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.8571428571429" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.2" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.2190476190476" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6095238095238" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
@@ -748,7 +743,7 @@
       <c r="F6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" s="7" t="s">
@@ -793,13 +788,13 @@
       <c r="B14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="9" t="s">
@@ -807,77 +802,78 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="3:5">
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="3:5">
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="D18" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="E18" s="13"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="14" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/src/main/resources/ExportTemplate/PhieuDeNghiThanhToanTemplate.xlsx
+++ b/src/main/resources/ExportTemplate/PhieuDeNghiThanhToanTemplate.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="7890"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20370" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <r>
       <rPr>
@@ -174,13 +173,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -304,27 +297,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -353,20 +331,94 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Comma[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Percent" xfId="4" builtinId="5"/>
-    <cellStyle name="Currency[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1190625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2" descr="logo-AEL"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="200025"/>
+          <a:ext cx="1600200" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -664,6 +716,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -696,41 +749,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="6.11428571428571" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6380952380952" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.8571428571429" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.2" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.2190476190476" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6095238095238" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:5">
+    <row r="2" spans="1:10">
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="5:5">
+    <row r="3" spans="1:10">
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="5:5">
+    <row r="4" spans="1:10">
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:10">
+    <row r="6" spans="1:10">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -745,17 +797,17 @@
       </c>
       <c r="J6" s="15"/>
     </row>
-    <row r="7" spans="3:3">
+    <row r="7" spans="1:10">
       <c r="C7" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:10">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -763,7 +815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -771,17 +823,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:10" ht="33.75" customHeight="1">
+      <c r="A12" s="16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="9" t="s">
         <v>14</v>
       </c>
@@ -801,7 +858,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:10">
       <c r="A15" s="10" t="s">
         <v>20</v>
       </c>
@@ -821,7 +878,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:10">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -835,7 +892,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="3:5">
+    <row r="17" spans="2:5">
       <c r="C17" s="12" t="s">
         <v>29</v>
       </c>
@@ -843,7 +900,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="2:5">
       <c r="C18" s="12" t="s">
         <v>31</v>
       </c>
@@ -852,7 +909,7 @@
       </c>
       <c r="E18" s="13"/>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:5">
       <c r="B19" s="14" t="s">
         <v>33</v>
       </c>
@@ -872,10 +929,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="landscape"/>
+  <mergeCells count="1">
+    <mergeCell ref="A12:F12"/>
+  </mergeCells>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>